--- a/data-raw/lulucf/lulucf_lts.xlsx
+++ b/data-raw/lulucf/lulucf_lts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbrownin\GitHub\BTR\data-raw\lulucf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlopez\Github\BTR\data-raw\lulucf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5AE767-19ED-4DB2-927B-FF5A3511E070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CD0A0B-0AEA-40A3-B0B9-AF2AD2694801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{420A80F6-E1CF-424D-9063-F8EC805B5804}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{420A80F6-E1CF-424D-9063-F8EC805B5804}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="15">
   <si>
     <t>scenario</t>
   </si>
@@ -53,18 +53,6 @@
     <t>lulucf</t>
   </si>
   <si>
-    <t>bau_low</t>
-  </si>
-  <si>
-    <t>bau_high</t>
-  </si>
-  <si>
-    <t>wam_low</t>
-  </si>
-  <si>
-    <t>wam_high</t>
-  </si>
-  <si>
     <t>region</t>
   </si>
   <si>
@@ -75,6 +63,24 @@
   </si>
   <si>
     <t>MMT CO2e</t>
+  </si>
+  <si>
+    <t>LOW BAU</t>
+  </si>
+  <si>
+    <t>HIGH BAU</t>
+  </si>
+  <si>
+    <t>Low Range WAM</t>
+  </si>
+  <si>
+    <t>High Range WAM</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>LandSink</t>
   </si>
 </sst>
 </file>
@@ -426,23 +432,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AD23CA-48B7-40FD-A38E-7A45F51157BF}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -456,18 +462,21 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2">
         <v>2030</v>
@@ -476,18 +485,21 @@
         <v>-743.09711157562333</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>2035</v>
@@ -496,18 +508,21 @@
         <v>-659.26322942720196</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>2040</v>
@@ -516,18 +531,21 @@
         <v>-554.02036161887133</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>2045</v>
@@ -536,18 +554,21 @@
         <v>-509.18138093476944</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>2050</v>
@@ -556,18 +577,21 @@
         <v>-475.75686480370655</v>
       </c>
       <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
       </c>
       <c r="C7">
         <v>2019</v>
@@ -576,18 +600,21 @@
         <v>-812.7</v>
       </c>
       <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
       </c>
       <c r="C8">
         <v>2030</v>
@@ -596,18 +623,21 @@
         <v>-883.90327395269583</v>
       </c>
       <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
       </c>
       <c r="C9">
         <v>2035</v>
@@ -616,18 +646,21 @@
         <v>-952.20654790539174</v>
       </c>
       <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
       </c>
       <c r="C10">
         <v>2040</v>
@@ -636,18 +669,21 @@
         <v>-989.30734376972725</v>
       </c>
       <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
       </c>
       <c r="C11">
         <v>2045</v>
@@ -656,18 +692,21 @@
         <v>-1026.4081396340628</v>
       </c>
       <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
       </c>
       <c r="C12">
         <v>2050</v>
@@ -676,18 +715,21 @@
         <v>-1063.5089354983984</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>2030</v>
@@ -696,18 +738,21 @@
         <v>-834.16236046451206</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>2035</v>
@@ -716,18 +761,21 @@
         <v>-782.87394609386831</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>2040</v>
@@ -736,18 +784,21 @@
         <v>-708.83046661887136</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>2045</v>
@@ -756,18 +807,21 @@
         <v>-667.73587426810309</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>2050</v>
@@ -776,18 +830,21 @@
         <v>-636.39865194656397</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
       </c>
       <c r="C18">
         <v>2030</v>
@@ -796,18 +853,21 @@
         <v>-1041.8755864526959</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
       </c>
       <c r="C19">
         <v>2035</v>
@@ -816,18 +876,21 @@
         <v>-1166.566857905392</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
       </c>
       <c r="C20">
         <v>2040</v>
@@ -836,18 +899,21 @@
         <v>-1261.1472212697272</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
       </c>
       <c r="C21">
         <v>2045</v>
@@ -856,18 +922,21 @@
         <v>-1318.0142513007293</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
       </c>
       <c r="C22">
         <v>2050</v>
@@ -876,10 +945,13 @@
         <v>-1352.8343715698268</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/lulucf/lulucf_lts.xlsx
+++ b/data-raw/lulucf/lulucf_lts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlopez\Github\BTR\data-raw\lulucf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CD0A0B-0AEA-40A3-B0B9-AF2AD2694801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437A4D0E-E484-41DF-B420-C3596EF56087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{420A80F6-E1CF-424D-9063-F8EC805B5804}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data-raw/lulucf/lulucf_lts.xlsx
+++ b/data-raw/lulucf/lulucf_lts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlopez\Github\BTR\data-raw\lulucf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbrownin\GitHub\BTR\data-raw\lulucf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437A4D0E-E484-41DF-B420-C3596EF56087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BFA410-885B-4A0C-B7E6-1F3B1304259F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{420A80F6-E1CF-424D-9063-F8EC805B5804}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="18900" windowHeight="10890" xr2:uid="{420A80F6-E1CF-424D-9063-F8EC805B5804}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="15">
   <si>
     <t>scenario</t>
   </si>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AD23CA-48B7-40FD-A38E-7A45F51157BF}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,6 +446,7 @@
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -479,7 +480,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="D2">
         <v>-743.09711157562333</v>
@@ -502,10 +503,10 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="D3">
-        <v>-659.26322942720196</v>
+        <v>-743.09711157562333</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -525,10 +526,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="D4">
-        <v>-554.02036161887133</v>
+        <v>-659.26322942720196</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -548,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="D5">
-        <v>-509.18138093476944</v>
+        <v>-554.02036161887133</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -571,10 +572,10 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="D6">
-        <v>-475.75686480370655</v>
+        <v>-509.18138093476944</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -591,13 +592,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="D7">
-        <v>-812.7</v>
+        <v>-475.75686480370655</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -617,10 +618,10 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="D8">
-        <v>-883.90327395269583</v>
+        <v>-743.09711157562333</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -640,10 +641,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="D9">
-        <v>-952.20654790539174</v>
+        <v>-883.90327395269583</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -663,10 +664,10 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="D10">
-        <v>-989.30734376972725</v>
+        <v>-952.20654790539174</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -686,10 +687,10 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="D11">
-        <v>-1026.4081396340628</v>
+        <v>-989.30734376972725</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -709,10 +710,10 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="D12">
-        <v>-1063.5089354983984</v>
+        <v>-1026.4081396340628</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -729,13 +730,13 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="D13">
-        <v>-834.16236046451206</v>
+        <v>-1063.5089354983984</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -755,10 +756,10 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>2035</v>
+        <v>2025</v>
       </c>
       <c r="D14">
-        <v>-782.87394609386831</v>
+        <v>-834.16236046451206</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
@@ -778,10 +779,10 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="D15">
-        <v>-708.83046661887136</v>
+        <v>-834.16236046451206</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
@@ -801,10 +802,10 @@
         <v>11</v>
       </c>
       <c r="C16">
-        <v>2045</v>
+        <v>2035</v>
       </c>
       <c r="D16">
-        <v>-667.73587426810309</v>
+        <v>-782.87394609386831</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -824,10 +825,10 @@
         <v>11</v>
       </c>
       <c r="C17">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="D17">
-        <v>-636.39865194656397</v>
+        <v>-708.83046661887136</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
@@ -844,13 +845,13 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18">
-        <v>2030</v>
+        <v>2045</v>
       </c>
       <c r="D18">
-        <v>-1041.8755864526959</v>
+        <v>-667.73587426810309</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
@@ -867,13 +868,13 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19">
-        <v>2035</v>
+        <v>2050</v>
       </c>
       <c r="D19">
-        <v>-1166.566857905392</v>
+        <v>-636.39865194656397</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
@@ -893,10 +894,10 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>2040</v>
+        <v>2025</v>
       </c>
       <c r="D20">
-        <v>-1261.1472212697272</v>
+        <v>-1041.8755864526959</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
@@ -916,10 +917,10 @@
         <v>12</v>
       </c>
       <c r="C21">
-        <v>2045</v>
+        <v>2030</v>
       </c>
       <c r="D21">
-        <v>-1318.0142513007293</v>
+        <v>-1041.8755864526959</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
@@ -939,18 +940,87 @@
         <v>12</v>
       </c>
       <c r="C22">
+        <v>2035</v>
+      </c>
+      <c r="D22">
+        <v>-1166.566857905392</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>2040</v>
+      </c>
+      <c r="D23">
+        <v>-1261.1472212697272</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>2045</v>
+      </c>
+      <c r="D24">
+        <v>-1318.0142513007293</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
         <v>2050</v>
       </c>
-      <c r="D22">
+      <c r="D25">
         <v>-1352.8343715698268</v>
       </c>
-      <c r="E22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data-raw/lulucf/lulucf_lts.xlsx
+++ b/data-raw/lulucf/lulucf_lts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbrownin\GitHub\BTR\data-raw\lulucf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BFA410-885B-4A0C-B7E6-1F3B1304259F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8336A4B9-5D7A-4F38-993A-D58AC2907870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="18900" windowHeight="10890" xr2:uid="{420A80F6-E1CF-424D-9063-F8EC805B5804}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{420A80F6-E1CF-424D-9063-F8EC805B5804}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>model</t>
   </si>
   <si>
-    <t>lulucf</t>
-  </si>
-  <si>
     <t>region</t>
   </si>
   <si>
@@ -80,7 +77,10 @@
     <t>variable</t>
   </si>
   <si>
-    <t>LandSink</t>
+    <t>lulucf_lts</t>
+  </si>
+  <si>
+    <t>Emissions|LULUCF|Net Total</t>
   </si>
 </sst>
 </file>
@@ -434,19 +434,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AD23CA-48B7-40FD-A38E-7A45F51157BF}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -463,21 +463,21 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>2025</v>
@@ -486,10 +486,10 @@
         <v>-743.09711157562333</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -497,10 +497,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2030</v>
@@ -509,10 +509,10 @@
         <v>-743.09711157562333</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -520,10 +520,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>2035</v>
@@ -532,10 +532,10 @@
         <v>-659.26322942720196</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -543,10 +543,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>2040</v>
@@ -555,10 +555,10 @@
         <v>-554.02036161887133</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -566,10 +566,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>2045</v>
@@ -578,10 +578,10 @@
         <v>-509.18138093476944</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -589,10 +589,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>2050</v>
@@ -601,10 +601,10 @@
         <v>-475.75686480370655</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
@@ -612,10 +612,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>2025</v>
@@ -624,10 +624,10 @@
         <v>-743.09711157562333</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
@@ -635,10 +635,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>2030</v>
@@ -647,10 +647,10 @@
         <v>-883.90327395269583</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
@@ -658,10 +658,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>2035</v>
@@ -670,10 +670,10 @@
         <v>-952.20654790539174</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -681,10 +681,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>2040</v>
@@ -693,10 +693,10 @@
         <v>-989.30734376972725</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
@@ -704,10 +704,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>2045</v>
@@ -716,10 +716,10 @@
         <v>-1026.4081396340628</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
@@ -727,10 +727,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>2050</v>
@@ -739,10 +739,10 @@
         <v>-1063.5089354983984</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
@@ -750,10 +750,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>2025</v>
@@ -762,10 +762,10 @@
         <v>-834.16236046451206</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
@@ -773,10 +773,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>2030</v>
@@ -785,10 +785,10 @@
         <v>-834.16236046451206</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>2035</v>
@@ -808,10 +808,10 @@
         <v>-782.87394609386831</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" t="s">
         <v>14</v>
@@ -819,10 +819,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>2040</v>
@@ -831,10 +831,10 @@
         <v>-708.83046661887136</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
@@ -842,10 +842,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>2045</v>
@@ -854,10 +854,10 @@
         <v>-667.73587426810309</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" t="s">
         <v>14</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>2050</v>
@@ -877,10 +877,10 @@
         <v>-636.39865194656397</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
@@ -888,10 +888,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <v>2025</v>
@@ -900,10 +900,10 @@
         <v>-1041.8755864526959</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G20" t="s">
         <v>14</v>
@@ -911,10 +911,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21">
         <v>2030</v>
@@ -923,10 +923,10 @@
         <v>-1041.8755864526959</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
@@ -934,10 +934,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <v>2035</v>
@@ -946,10 +946,10 @@
         <v>-1166.566857905392</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22" t="s">
         <v>14</v>
@@ -957,10 +957,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>2040</v>
@@ -969,10 +969,10 @@
         <v>-1261.1472212697272</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G23" t="s">
         <v>14</v>
@@ -980,10 +980,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24">
         <v>2045</v>
@@ -992,10 +992,10 @@
         <v>-1318.0142513007293</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
@@ -1003,10 +1003,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25">
         <v>2050</v>
@@ -1015,10 +1015,10 @@
         <v>-1352.8343715698268</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G25" t="s">
         <v>14</v>
